--- a/Algorithm/정올에서+뽑은+문제리스트.xlsx
+++ b/Algorithm/정올에서+뽑은+문제리스트.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\my_software_study\Algorithm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="정올 문제선별" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="정올 문제선별" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'정올 문제선별'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'정올 문제선별'!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,22 +29,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
   <si>
-    <t xml:space="preserve">번호</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문제번호</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문제 출처</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문제제목</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수준</t>
-  </si>
-  <si>
-    <t xml:space="preserve">비고</t>
+    <t>번호</t>
+  </si>
+  <si>
+    <t>문제번호</t>
+  </si>
+  <si>
+    <t>문제 출처</t>
+  </si>
+  <si>
+    <t>문제제목</t>
+  </si>
+  <si>
+    <t>수준</t>
+  </si>
+  <si>
+    <t>비고</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad								  &gt;															한국정보올림피아드								  &gt;															KOI 1996								  &gt;														초등부							 3번 </t>
@@ -49,16 +53,16 @@
     <t xml:space="preserve">직사각형 네개의 합집합의 면적 구하기 </t>
   </si>
   <si>
-    <t xml:space="preserve">IM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v</t>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad								  &gt;															한국정보올림피아드								  &gt;															KOI 2000								  &gt;														초등부							 1번 </t>
   </si>
   <si>
-    <t xml:space="preserve">수 이어가기</t>
+    <t>수 이어가기</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad								  &gt;															한국정보올림피아드								  &gt;															KOI 2000								  &gt;														초등부							 2번 </t>
@@ -99,7 +103,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">Olympiad  &gt;한국정보올림피아드  &gt; 한국정보올림피아드시</t>
+      <t>Olympiad  &gt;한국정보올림피아드  &gt; 한국정보올림피아드시</t>
     </r>
     <r>
       <rPr>
@@ -109,7 +113,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">․</t>
+      <t>․</t>
     </r>
     <r>
       <rPr>
@@ -123,7 +127,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">빙고</t>
+    <t>빙고</t>
   </si>
   <si>
     <r>
@@ -134,7 +138,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">Olympiad  &gt;한국정보올림피아드  &gt; 한국정보올림피아드시</t>
+      <t>Olympiad  &gt;한국정보올림피아드  &gt; 한국정보올림피아드시</t>
     </r>
     <r>
       <rPr>
@@ -144,7 +148,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">․</t>
+      <t>․</t>
     </r>
     <r>
       <rPr>
@@ -158,7 +162,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">참외밭</t>
+    <t>참외밭</t>
   </si>
   <si>
     <r>
@@ -169,7 +173,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">Olympiad  &gt;한국정보올림피아드  &gt; 한국정보올림피아드시</t>
+      <t>Olympiad  &gt;한국정보올림피아드  &gt; 한국정보올림피아드시</t>
     </r>
     <r>
       <rPr>
@@ -179,7 +183,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">․</t>
+      <t>․</t>
     </r>
     <r>
       <rPr>
@@ -193,7 +197,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">직사각형</t>
+    <t>직사각형</t>
   </si>
   <si>
     <r>
@@ -204,7 +208,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">Olympiad  &gt;한국정보올림피아드  &gt; 한국정보올림피아드시</t>
+      <t>Olympiad  &gt;한국정보올림피아드  &gt; 한국정보올림피아드시</t>
     </r>
     <r>
       <rPr>
@@ -214,7 +218,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">․</t>
+      <t>․</t>
     </r>
     <r>
       <rPr>
@@ -228,7 +232,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">자리배정</t>
+    <t>자리배정</t>
   </si>
   <si>
     <r>
@@ -239,7 +243,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">Olympiad  &gt;한국정보올림피아드  &gt; 한국정보올림피아드시</t>
+      <t>Olympiad  &gt;한국정보올림피아드  &gt; 한국정보올림피아드시</t>
     </r>
     <r>
       <rPr>
@@ -249,7 +253,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">․</t>
+      <t>․</t>
     </r>
     <r>
       <rPr>
@@ -263,19 +267,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">개미</t>
+    <t>개미</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad								  &gt;															한국정보올림피아드								  &gt;															KOI 1996								  &gt;														초등부							 1번 </t>
   </si>
   <si>
-    <t xml:space="preserve">단지번호붙이기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
+    <t>단지번호붙이기</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad								  &gt;															한국정보올림피아드								  &gt;															KOI 1997								  &gt;														초등부							 3번 </t>
@@ -287,13 +291,13 @@
     <t xml:space="preserve">Olympiad								  &gt;															한국정보올림피아드								  &gt;															KOI 1998								  &gt;														초등부							 2번 </t>
   </si>
   <si>
-    <t xml:space="preserve">자동차경주대회</t>
+    <t>자동차경주대회</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad								  &gt;															한국정보올림피아드								  &gt;															KOI 1998								  &gt;														초등부							 3번 </t>
   </si>
   <si>
-    <t xml:space="preserve">블록맞추기</t>
+    <t>블록맞추기</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad								  &gt;															한국정보올림피아드								  &gt;															KOI 1999								  &gt;														초등부							 3번 </t>
@@ -314,7 +318,7 @@
     <t xml:space="preserve">양팔저울 </t>
   </si>
   <si>
-    <t xml:space="preserve">부분집합</t>
+    <t>부분집합</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad								  &gt;															한국정보올림피아드								  &gt;															KOI 2005								  &gt;														초등부							 1번 </t>
@@ -341,9 +345,6 @@
     <t xml:space="preserve">빙산 </t>
   </si>
   <si>
-    <t xml:space="preserve">순회+</t>
-  </si>
-  <si>
     <t xml:space="preserve">Olympiad								  &gt;															한국정보올림피아드								  &gt;															KOI 2008								  &gt;														초등부							 3번 </t>
   </si>
   <si>
@@ -353,7 +354,7 @@
     <t xml:space="preserve">Olympiad  &gt;한국정보올림피아드  &gt; KOI 2009  &gt; 초등부 2번 </t>
   </si>
   <si>
-    <t xml:space="preserve">루빅의 사각형</t>
+    <t>루빅의 사각형</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad  &gt;한국정보올림피아드  &gt; KOI 2010  &gt; 초등부 2번 </t>
@@ -413,16 +414,16 @@
     <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; KOI 2018  &gt; 초등부 3번 </t>
   </si>
   <si>
-    <t xml:space="preserve">두 로봇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다익스트라</t>
+    <t>두 로봇</t>
+  </si>
+  <si>
+    <t>다익스트라</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2004  &gt; 초등부 1번 </t>
   </si>
   <si>
-    <t xml:space="preserve">일곱 난쟁이</t>
+    <t>일곱 난쟁이</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2004  &gt; 초등부 2번 </t>
@@ -443,7 +444,7 @@
     <t xml:space="preserve">비슷한 단어 </t>
   </si>
   <si>
-    <t xml:space="preserve">카운트</t>
+    <t>카운트</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2005  &gt; 초등부 3번 </t>
@@ -452,7 +453,7 @@
     <t xml:space="preserve">보물섬 </t>
   </si>
   <si>
-    <t xml:space="preserve">BFS</t>
+    <t>BFS</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2005  &gt; 초등부 5번 </t>
@@ -464,7 +465,7 @@
     <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2006  &gt; 초등부 5번 </t>
   </si>
   <si>
-    <t xml:space="preserve">스도쿠</t>
+    <t>스도쿠</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2007  &gt; 초등부 2번 </t>
@@ -485,7 +486,7 @@
     <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2008  &gt; 초등부 5번 </t>
   </si>
   <si>
-    <t xml:space="preserve">두 번 뒤집기</t>
+    <t>두 번 뒤집기</t>
   </si>
   <si>
     <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2009  &gt; 초등부 2번 </t>
@@ -503,40 +504,23 @@
     <t xml:space="preserve">저울 </t>
   </si>
   <si>
-    <t xml:space="preserve">플로이드</t>
+    <t>플로이드</t>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="129"/>
     </font>
     <font>
@@ -553,6 +537,12 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -563,7 +553,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -571,53 +561,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -676,39 +640,309 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.65"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="62.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.62"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="53.625" customWidth="1"/>
+    <col min="3" max="3" width="62.875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.375" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,959 +963,954 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>2669</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>2635</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>1244</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>2628</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>2116</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>2304</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>2559</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="n">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>2578</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="n">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>2477</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>2527</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>10157</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>10158</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>2667</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>2660</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>2651</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>2652</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>2643</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>2636</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>2629</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>2303</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>2302</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>1268</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>2573</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6988</v>
+      </c>
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>6988</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="D25" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2549</v>
+      </c>
+      <c r="C26" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>2549</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="E26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2468</v>
+      </c>
+      <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>2468</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="D27" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>10163</v>
+      </c>
+      <c r="C28" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="0" t="s">
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>10164</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>13300</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>13301</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>10163</v>
-      </c>
-      <c r="C28" s="0" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>13302</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>14696</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>14697</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>14863</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>15971</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2309</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2605</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2606</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2607</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2589</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2591</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2580</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2563</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>10164</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>13300</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>13301</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>13302</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>14696</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>14697</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>14863</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>15971</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>2309</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>2605</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>2606</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>2607</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>2589</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>2591</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>2580</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C44" s="0" t="s">
+      <c r="E44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2564</v>
+      </c>
+      <c r="C45" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>2564</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="D45" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1799</v>
+      </c>
+      <c r="C46" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>1799</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="D46" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="E46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2505</v>
+      </c>
+      <c r="C47" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>2505</v>
-      </c>
-      <c r="C47" s="0" t="s">
+      <c r="D47" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="E47" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2491</v>
+      </c>
+      <c r="C48" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>2491</v>
-      </c>
-      <c r="C48" s="0" t="s">
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2529</v>
+      </c>
+      <c r="C49" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>2529</v>
-      </c>
-      <c r="C49" s="0" t="s">
+      <c r="D49" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="E49" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>10159</v>
+      </c>
+      <c r="C50" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>10159</v>
-      </c>
-      <c r="C50" s="0" t="s">
+      <c r="D50" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="E50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s">
         <v>110</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Algorithm/정올에서+뽑은+문제리스트.xlsx
+++ b/Algorithm/정올에서+뽑은+문제리스트.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="111">
   <si>
     <t>번호</t>
   </si>
@@ -318,9 +318,6 @@
     <t xml:space="preserve">양팔저울 </t>
   </si>
   <si>
-    <t>부분집합</t>
-  </si>
-  <si>
     <t xml:space="preserve">Olympiad								  &gt;															한국정보올림피아드								  &gt;															KOI 2005								  &gt;														초등부							 1번 </t>
   </si>
   <si>
@@ -417,94 +414,96 @@
     <t>두 로봇</t>
   </si>
   <si>
+    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2004  &gt; 초등부 1번 </t>
+  </si>
+  <si>
+    <t>일곱 난쟁이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2004  &gt; 초등부 2번 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 세우기 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2004  &gt; 초등부 3번 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">바이러스 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2004  &gt; 초등부 4번 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">비슷한 단어 </t>
+  </si>
+  <si>
+    <t>카운트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2005  &gt; 초등부 3번 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">보물섬 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2005  &gt; 초등부 5번 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">숫자카드 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2006  &gt; 초등부 5번 </t>
+  </si>
+  <si>
+    <t>스도쿠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2007  &gt; 초등부 2번 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2007  &gt; 초등부 3번 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경비원 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2007  &gt; 초등부 5번 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">비숍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2008  &gt; 초등부 5번 </t>
+  </si>
+  <si>
+    <t>두 번 뒤집기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2009  &gt; 초등부 2번 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2012  &gt; 초등부 5번 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">부등호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2014  &gt; 초등부 4번 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">저울 </t>
+  </si>
+  <si>
+    <t>플로이드</t>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>다익스트라</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2004  &gt; 초등부 1번 </t>
-  </si>
-  <si>
-    <t>일곱 난쟁이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2004  &gt; 초등부 2번 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">줄 세우기 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2004  &gt; 초등부 3번 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">바이러스 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2004  &gt; 초등부 4번 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">비슷한 단어 </t>
-  </si>
-  <si>
-    <t>카운트</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2005  &gt; 초등부 3번 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">보물섬 </t>
-  </si>
-  <si>
-    <t>BFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2005  &gt; 초등부 5번 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">숫자카드 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2006  &gt; 초등부 5번 </t>
-  </si>
-  <si>
-    <t>스도쿠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2007  &gt; 초등부 2번 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2007  &gt; 초등부 3번 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경비원 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2007  &gt; 초등부 5번 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">비숍 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2008  &gt; 초등부 5번 </t>
-  </si>
-  <si>
-    <t>두 번 뒤집기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2009  &gt; 초등부 2번 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2012  &gt; 초등부 5번 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">부등호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympiad  &gt; 한국정보올림피아드  &gt; 한국정보올림피아드시․도지역본선  &gt; 지역본선 2014  &gt; 초등부 4번 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">저울 </t>
-  </si>
-  <si>
-    <t>플로이드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>v</t>
@@ -926,18 +925,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="53.625" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="62.875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.375" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.375" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="1025" width="8.625" customWidth="1"/>
   </cols>
@@ -1340,7 +1339,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1351,10 +1350,10 @@
         <v>2303</v>
       </c>
       <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
         <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>34</v>
@@ -1374,10 +1373,10 @@
         <v>2302</v>
       </c>
       <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
         <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>34</v>
@@ -1391,10 +1390,10 @@
         <v>1268</v>
       </c>
       <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
         <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>34</v>
@@ -1408,10 +1407,10 @@
         <v>2573</v>
       </c>
       <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
         <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>34</v>
@@ -1420,7 +1419,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1431,10 +1430,10 @@
         <v>6988</v>
       </c>
       <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
         <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>34</v>
@@ -1448,10 +1447,10 @@
         <v>2549</v>
       </c>
       <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
         <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>34</v>
@@ -1465,10 +1464,10 @@
         <v>2468</v>
       </c>
       <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
         <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>34</v>
@@ -1488,10 +1487,10 @@
         <v>10163</v>
       </c>
       <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
         <v>63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
@@ -1508,10 +1507,10 @@
         <v>10164</v>
       </c>
       <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
         <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>66</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>34</v>
@@ -1525,10 +1524,10 @@
         <v>13300</v>
       </c>
       <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
         <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -1542,10 +1541,10 @@
         <v>13301</v>
       </c>
       <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
         <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>34</v>
@@ -1562,10 +1561,10 @@
         <v>13302</v>
       </c>
       <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
         <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>34</v>
@@ -1579,10 +1578,10 @@
         <v>14696</v>
       </c>
       <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
         <v>73</v>
-      </c>
-      <c r="D33" t="s">
-        <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
@@ -1596,10 +1595,10 @@
         <v>14697</v>
       </c>
       <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
         <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>34</v>
@@ -1613,10 +1612,10 @@
         <v>14863</v>
       </c>
       <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
         <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -1630,16 +1629,16 @@
         <v>15971</v>
       </c>
       <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
         <v>79</v>
       </c>
-      <c r="D36" t="s">
-        <v>80</v>
-      </c>
       <c r="E36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1650,10 +1649,10 @@
         <v>2309</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
@@ -1670,10 +1669,10 @@
         <v>2605</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>8</v>
@@ -1690,10 +1689,10 @@
         <v>2606</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>34</v>
@@ -1710,16 +1709,16 @@
         <v>2607</v>
       </c>
       <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
         <v>88</v>
-      </c>
-      <c r="D40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1730,16 +1729,16 @@
         <v>2589</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1750,10 +1749,10 @@
         <v>2591</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>34</v>
@@ -1767,10 +1766,10 @@
         <v>2580</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>34</v>
@@ -1784,10 +1783,10 @@
         <v>2563</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>8</v>
@@ -1804,10 +1803,10 @@
         <v>2564</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>8</v>
@@ -1824,10 +1823,10 @@
         <v>1799</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>34</v>
@@ -1841,10 +1840,10 @@
         <v>2505</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>34</v>
@@ -1858,7 +1857,7 @@
         <v>2491</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
@@ -1878,10 +1877,10 @@
         <v>2529</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>34</v>
@@ -1895,16 +1894,16 @@
         <v>10159</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
